--- a/Open Loop Systems/images/Milestone2Graph.xlsx
+++ b/Open Loop Systems/images/Milestone2Graph.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Dropbox\College\Junior\Semester5\Embedded\Labs\lab-6taking-control-over-your-embedded-life-mattmammarelli\Open Loop Systems\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -81,6 +81,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -113,32 +114,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Temperature vs. Duty Cycle Steady State</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -177,17 +152,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -221,13 +185,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.9041894769505345E-3"/>
-                  <c:y val="-0.16125497180128687"/>
+                  <c:x val="-9.486876640419948E-3"/>
+                  <c:y val="2.3505030621172353E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -262,7 +240,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -304,47 +282,52 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.309</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.26500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.253</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E84D-44A6-AB7B-5FF10C12D693}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -354,14 +337,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214224888"/>
-        <c:axId val="214225280"/>
+        <c:axId val="830520112"/>
+        <c:axId val="829901264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214224888"/>
+        <c:axId val="830520112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -379,62 +361,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Duty Cycle</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -472,89 +398,54 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214225280"/>
+        <c:crossAx val="829901264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214225280"/>
+        <c:axId val="829901264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.24500000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="25000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Temperature (V)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -592,7 +483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214224888"/>
+        <c:crossAx val="830520112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1201,20 +1092,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46784</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60944C76-97FA-49EA-A613-B71D2F88DBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1495,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1403,7 @@
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1514,98 +1411,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.309</v>
       </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.1</v>
       </c>
       <c r="B3">
         <v>0.30299999999999999</v>
       </c>
+      <c r="G3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
       <c r="B4">
         <v>0.29899999999999999</v>
       </c>
+      <c r="G4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.3</v>
       </c>
       <c r="B5">
         <v>0.28499999999999998</v>
       </c>
+      <c r="G5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.4</v>
       </c>
       <c r="B6">
         <v>0.27200000000000002</v>
       </c>
+      <c r="G6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
       <c r="B7">
         <v>0.26500000000000001</v>
       </c>
+      <c r="G7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.6</v>
       </c>
       <c r="B8">
         <v>0.25800000000000001</v>
       </c>
+      <c r="G8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>0.33300000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.7</v>
       </c>
       <c r="B9">
         <v>0.25700000000000001</v>
       </c>
+      <c r="G9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.8</v>
       </c>
       <c r="B10">
         <v>0.253</v>
       </c>
+      <c r="G10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>0.309</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.9</v>
       </c>
       <c r="B11">
         <v>0.248</v>
       </c>
+      <c r="G11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H11">
+        <v>0.29699999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12">
         <v>0.248</v>
       </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.26500000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
